--- a/TestCases/02-UserManagementHRM.xlsx
+++ b/TestCases/02-UserManagementHRM.xlsx
@@ -841,6 +841,117 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -889,9 +1000,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,13 +1048,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,108 +1122,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1406,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="B310" sqref="B310"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="F307" sqref="F307:F309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1423,213 +1423,213 @@
   <sheetData>
     <row r="2" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="27" t="s">
+      <c r="F3" s="59"/>
+      <c r="G3" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="33" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="34"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
     </row>
     <row r="5" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="74"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="21" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="27" t="s">
+      <c r="F6" s="59"/>
+      <c r="G6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="39" t="s">
+      <c r="H6" s="41"/>
+      <c r="I6" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="J6" s="40"/>
+      <c r="J6" s="76"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="48">
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="82">
         <v>43193</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="27" t="s">
+      <c r="F9" s="83"/>
+      <c r="G9" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="54">
+      <c r="H9" s="41"/>
+      <c r="I9" s="88">
         <v>43203</v>
       </c>
-      <c r="J9" s="55"/>
+      <c r="J9" s="89"/>
     </row>
     <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
     </row>
     <row r="11" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="15" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="63" t="s">
+      <c r="H16" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="61"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="76"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="2:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="62"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="77"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="45" t="s">
+      <c r="F19" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="47" t="s">
+      <c r="H19" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="J19" s="47"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="70"/>
+      <c r="F20" s="36"/>
       <c r="G20" s="10"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1640,7 +1640,7 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="70"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="10"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -1654,8 +1654,8 @@
       <c r="D22" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="80"/>
-      <c r="F22" s="73" t="s">
+      <c r="E22" s="47"/>
+      <c r="F22" s="39" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="10"/>
@@ -1667,8 +1667,8 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="70"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="10"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -1678,8 +1678,8 @@
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="70"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="10"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -1693,10 +1693,10 @@
       <c r="D25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="73" t="s">
+      <c r="F25" s="39" t="s">
         <v>17</v>
       </c>
       <c r="G25" s="10" t="s">
@@ -1712,8 +1712,8 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="70"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="10"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -1723,39 +1723,39 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="74"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="11"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="75" t="s">
+      <c r="F28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="15" t="s">
         <v>32</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="82" t="s">
+      <c r="I28" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J28" s="85"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
@@ -1765,8 +1765,8 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="81"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
@@ -1776,8 +1776,8 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="81"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
@@ -1793,8 +1793,8 @@
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="81"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
@@ -1804,8 +1804,8 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="81"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="10"/>
@@ -1815,8 +1815,8 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="81"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
@@ -1830,8 +1830,8 @@
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="81"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="10"/>
@@ -1841,8 +1841,8 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="81"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="10"/>
@@ -1852,8 +1852,8 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="81"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="29"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
@@ -1869,8 +1869,8 @@
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="81"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="10"/>
@@ -1880,8 +1880,8 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="81"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="29"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="10"/>
@@ -1891,8 +1891,8 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="81"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="29"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="10"/>
@@ -1900,42 +1900,42 @@
       <c r="D40" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="87"/>
-      <c r="F40" s="90" t="s">
-        <v>65</v>
+      <c r="E40" s="31"/>
+      <c r="F40" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="81"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="90"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="34"/>
       <c r="G41" s="10"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="81"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="91"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="35"/>
       <c r="G42" s="11"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="86"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="30"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="10" t="s">
@@ -1947,19 +1947,19 @@
       <c r="F43" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="75" t="s">
+      <c r="G43" s="15" t="s">
         <v>129</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I43" s="82" t="s">
+      <c r="I43" s="22" t="s">
         <v>126</v>
       </c>
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="93"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -1970,7 +1970,7 @@
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="93"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -1981,7 +1981,7 @@
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="93"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10" t="s">
         <v>46</v>
@@ -1998,7 +1998,7 @@
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="93"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -2009,7 +2009,7 @@
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="93"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -2020,7 +2020,7 @@
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="93"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10" t="s">
         <v>48</v>
@@ -2035,7 +2035,7 @@
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="93"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
@@ -2046,7 +2046,7 @@
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="93"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
@@ -2057,7 +2057,7 @@
       <c r="J51" s="8"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="93"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10" t="s">
         <v>37</v>
@@ -2074,7 +2074,7 @@
       <c r="J52" s="8"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="93"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -2085,7 +2085,7 @@
       <c r="J53" s="8"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="93"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -2096,14 +2096,14 @@
       <c r="J54" s="8"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="93"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="8"/>
@@ -2111,7 +2111,7 @@
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="93"/>
+      <c r="B56" s="13"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -2122,7 +2122,7 @@
       <c r="J56" s="8"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="94"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -2133,56 +2133,56 @@
       <c r="J57" s="9"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="92" t="s">
+      <c r="B58" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="75" t="s">
+      <c r="C58" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="75" t="s">
+      <c r="D58" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E58" s="75" t="s">
+      <c r="E58" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F58" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="75" t="s">
+      <c r="F58" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>42</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I58" s="82" t="s">
+      <c r="I58" s="22" t="s">
         <v>126</v>
       </c>
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="93"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="83"/>
+      <c r="I59" s="16"/>
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="93"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="83"/>
+      <c r="I60" s="16"/>
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="93"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10" t="s">
         <v>46</v>
@@ -2195,33 +2195,33 @@
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="83"/>
+      <c r="I61" s="16"/>
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="93"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="83"/>
+      <c r="I62" s="16"/>
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="93"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="83"/>
+      <c r="I63" s="16"/>
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="93"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10" t="s">
         <v>48</v>
@@ -2232,33 +2232,33 @@
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="83"/>
+      <c r="I64" s="16"/>
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="93"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="83"/>
+      <c r="I65" s="16"/>
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="93"/>
+      <c r="B66" s="13"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="8"/>
-      <c r="I66" s="83"/>
+      <c r="I66" s="16"/>
       <c r="J66" s="8"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="93"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10" t="s">
         <v>39</v>
@@ -2271,119 +2271,119 @@
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="83"/>
+      <c r="I67" s="16"/>
       <c r="J67" s="8"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="93"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="83"/>
+      <c r="I68" s="16"/>
       <c r="J68" s="8"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="93"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="8"/>
-      <c r="I69" s="83"/>
+      <c r="I69" s="16"/>
       <c r="J69" s="8"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="93"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="83"/>
+      <c r="I70" s="16"/>
       <c r="J70" s="8"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="93"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="83"/>
+      <c r="I71" s="16"/>
       <c r="J71" s="8"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="94"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="9"/>
-      <c r="I72" s="84"/>
+      <c r="I72" s="17"/>
       <c r="J72" s="9"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="92" t="s">
+      <c r="B73" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="75" t="s">
+      <c r="C73" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="75" t="s">
+      <c r="D73" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E73" s="75" t="s">
+      <c r="E73" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F73" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" s="75" t="s">
+      <c r="F73" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="15" t="s">
         <v>129</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I73" s="82" t="s">
+      <c r="I73" s="22" t="s">
         <v>126</v>
       </c>
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="93"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="8"/>
-      <c r="I74" s="83"/>
+      <c r="I74" s="16"/>
       <c r="J74" s="8"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="93"/>
+      <c r="B75" s="13"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="83"/>
+      <c r="I75" s="16"/>
       <c r="J75" s="8"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="93"/>
+      <c r="B76" s="13"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10" t="s">
         <v>36</v>
@@ -2396,33 +2396,33 @@
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="83"/>
+      <c r="I76" s="16"/>
       <c r="J76" s="8"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="93"/>
+      <c r="B77" s="13"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="83"/>
+      <c r="I77" s="16"/>
       <c r="J77" s="8"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="93"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="83"/>
+      <c r="I78" s="16"/>
       <c r="J78" s="8"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B79" s="93"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
         <v>38</v>
@@ -2435,33 +2435,33 @@
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="83"/>
+      <c r="I79" s="16"/>
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B80" s="93"/>
+      <c r="B80" s="13"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="83"/>
+      <c r="I80" s="16"/>
       <c r="J80" s="8"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B81" s="93"/>
+      <c r="B81" s="13"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="83"/>
+      <c r="I81" s="16"/>
       <c r="J81" s="8"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B82" s="93"/>
+      <c r="B82" s="13"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
         <v>37</v>
@@ -2474,119 +2474,119 @@
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="8"/>
-      <c r="I82" s="83"/>
+      <c r="I82" s="16"/>
       <c r="J82" s="8"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B83" s="93"/>
+      <c r="B83" s="13"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="83"/>
+      <c r="I83" s="16"/>
       <c r="J83" s="8"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B84" s="93"/>
+      <c r="B84" s="13"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="83"/>
+      <c r="I84" s="16"/>
       <c r="J84" s="8"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="93"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E85" s="10"/>
       <c r="F85" s="10" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="83"/>
+      <c r="I85" s="16"/>
       <c r="J85" s="8"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B86" s="93"/>
+      <c r="B86" s="13"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="83"/>
+      <c r="I86" s="16"/>
       <c r="J86" s="8"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B87" s="94"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="11"/>
       <c r="D87" s="10"/>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="9"/>
-      <c r="I87" s="84"/>
+      <c r="I87" s="17"/>
       <c r="J87" s="9"/>
     </row>
     <row r="88" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="92" t="s">
+      <c r="B88" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C88" s="75" t="s">
+      <c r="C88" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D88" s="75" t="s">
+      <c r="D88" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E88" s="75" t="s">
+      <c r="E88" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F88" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" s="75" t="s">
+      <c r="F88" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="15" t="s">
         <v>129</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I88" s="82" t="s">
+      <c r="I88" s="22" t="s">
         <v>126</v>
       </c>
       <c r="J88" s="7"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B89" s="93"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="83"/>
+      <c r="I89" s="16"/>
       <c r="J89" s="8"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B90" s="93"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="8"/>
-      <c r="I90" s="83"/>
+      <c r="I90" s="16"/>
       <c r="J90" s="8"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" s="93"/>
+      <c r="B91" s="13"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10" t="s">
         <v>57</v>
@@ -2599,33 +2599,33 @@
       </c>
       <c r="G91" s="10"/>
       <c r="H91" s="8"/>
-      <c r="I91" s="83"/>
+      <c r="I91" s="16"/>
       <c r="J91" s="8"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" s="93"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="83"/>
+      <c r="I92" s="16"/>
       <c r="J92" s="8"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B93" s="93"/>
+      <c r="B93" s="13"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
       <c r="H93" s="8"/>
-      <c r="I93" s="83"/>
+      <c r="I93" s="16"/>
       <c r="J93" s="8"/>
     </row>
     <row r="94" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="93"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10" t="s">
         <v>38</v>
@@ -2638,33 +2638,33 @@
       </c>
       <c r="G94" s="10"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="83"/>
+      <c r="I94" s="16"/>
       <c r="J94" s="8"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B95" s="93"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
       <c r="H95" s="8"/>
-      <c r="I95" s="83"/>
+      <c r="I95" s="16"/>
       <c r="J95" s="8"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B96" s="93"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="83"/>
+      <c r="I96" s="16"/>
       <c r="J96" s="8"/>
     </row>
     <row r="97" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="93"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10" t="s">
         <v>58</v>
@@ -2677,215 +2677,215 @@
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="83"/>
+      <c r="I97" s="16"/>
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="93"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="83"/>
+      <c r="I98" s="16"/>
       <c r="J98" s="8"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B99" s="93"/>
+      <c r="B99" s="13"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="83"/>
+      <c r="I99" s="16"/>
       <c r="J99" s="8"/>
     </row>
     <row r="100" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="93"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="G100" s="10"/>
       <c r="H100" s="8"/>
-      <c r="I100" s="83"/>
+      <c r="I100" s="16"/>
       <c r="J100" s="8"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="93"/>
+      <c r="B101" s="13"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="8"/>
-      <c r="I101" s="83"/>
+      <c r="I101" s="16"/>
       <c r="J101" s="8"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B102" s="94"/>
+      <c r="B102" s="14"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="9"/>
-      <c r="I102" s="84"/>
+      <c r="I102" s="17"/>
       <c r="J102" s="9"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="92" t="s">
+      <c r="B103" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C103" s="75" t="s">
+      <c r="C103" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D103" s="75" t="s">
+      <c r="D103" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E103" s="75"/>
-      <c r="F103" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" s="75" t="s">
+      <c r="E103" s="15"/>
+      <c r="F103" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G103" s="15" t="s">
         <v>60</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I103" s="82" t="s">
+      <c r="I103" s="22" t="s">
         <v>126</v>
       </c>
       <c r="J103" s="7"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="93"/>
+      <c r="B104" s="13"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="83"/>
+      <c r="I104" s="16"/>
       <c r="J104" s="8"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="94"/>
+      <c r="B105" s="14"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="9"/>
-      <c r="I105" s="84"/>
+      <c r="I105" s="17"/>
       <c r="J105" s="9"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B106" s="92" t="s">
+      <c r="B106" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C106" s="75" t="s">
+      <c r="C106" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D106" s="75" t="s">
+      <c r="D106" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E106" s="95" t="s">
+      <c r="E106" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="F106" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" s="75" t="s">
+      <c r="F106" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G106" s="15" t="s">
         <v>66</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="I106" s="82" t="s">
+      <c r="I106" s="22" t="s">
         <v>126</v>
       </c>
       <c r="J106" s="7"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="93"/>
+      <c r="B107" s="13"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="8"/>
-      <c r="I107" s="83"/>
+      <c r="I107" s="16"/>
       <c r="J107" s="8"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="94"/>
+      <c r="B108" s="14"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="9"/>
-      <c r="I108" s="84"/>
+      <c r="I108" s="17"/>
       <c r="J108" s="9"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C109" s="75" t="s">
+      <c r="C109" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D109" s="75" t="s">
+      <c r="D109" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E109" s="75" t="s">
+      <c r="E109" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F109" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" s="96" t="s">
+      <c r="F109" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H109" s="97" t="s">
+      <c r="H109" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="I109" s="82" t="s">
+      <c r="I109" s="22" t="s">
         <v>126</v>
       </c>
       <c r="J109" s="7"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="93"/>
+      <c r="B110" s="13"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="98"/>
-      <c r="I110" s="83"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="16"/>
       <c r="J110" s="8"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="93"/>
+      <c r="B111" s="13"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
       <c r="G111" s="2"/>
-      <c r="H111" s="98"/>
-      <c r="I111" s="83"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="16"/>
       <c r="J111" s="8"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="93"/>
+      <c r="B112" s="13"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10" t="s">
         <v>70</v>
@@ -2897,34 +2897,34 @@
         <v>17</v>
       </c>
       <c r="G112" s="2"/>
-      <c r="H112" s="98"/>
-      <c r="I112" s="83"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="16"/>
       <c r="J112" s="8"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B113" s="93"/>
+      <c r="B113" s="13"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="98"/>
-      <c r="I113" s="83"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="16"/>
       <c r="J113" s="8"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="93"/>
+      <c r="B114" s="13"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="98"/>
-      <c r="I114" s="83"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="16"/>
       <c r="J114" s="8"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="93"/>
+      <c r="B115" s="13"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10" t="s">
         <v>71</v>
@@ -2936,34 +2936,34 @@
         <v>17</v>
       </c>
       <c r="G115" s="2"/>
-      <c r="H115" s="98"/>
-      <c r="I115" s="83"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="16"/>
       <c r="J115" s="8"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B116" s="93"/>
+      <c r="B116" s="13"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="98"/>
-      <c r="I116" s="83"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="16"/>
       <c r="J116" s="8"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B117" s="93"/>
+      <c r="B117" s="13"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="98"/>
-      <c r="I117" s="83"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="16"/>
       <c r="J117" s="8"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="93"/>
+      <c r="B118" s="13"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10" t="s">
         <v>30</v>
@@ -2975,34 +2975,34 @@
         <v>17</v>
       </c>
       <c r="G118" s="2"/>
-      <c r="H118" s="98"/>
-      <c r="I118" s="83"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="16"/>
       <c r="J118" s="8"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="93"/>
+      <c r="B119" s="13"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
       <c r="G119" s="2"/>
-      <c r="H119" s="98"/>
-      <c r="I119" s="83"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="16"/>
       <c r="J119" s="8"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B120" s="93"/>
+      <c r="B120" s="13"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
       <c r="G120" s="2"/>
-      <c r="H120" s="98"/>
-      <c r="I120" s="83"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="16"/>
       <c r="J120" s="8"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B121" s="93"/>
+      <c r="B121" s="13"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10" t="s">
         <v>74</v>
@@ -3014,34 +3014,34 @@
         <v>17</v>
       </c>
       <c r="G121" s="2"/>
-      <c r="H121" s="98"/>
-      <c r="I121" s="83"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="16"/>
       <c r="J121" s="8"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B122" s="93"/>
+      <c r="B122" s="13"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
       <c r="G122" s="2"/>
-      <c r="H122" s="98"/>
-      <c r="I122" s="83"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="16"/>
       <c r="J122" s="8"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B123" s="93"/>
+      <c r="B123" s="13"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
       <c r="G123" s="2"/>
-      <c r="H123" s="98"/>
-      <c r="I123" s="83"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="16"/>
       <c r="J123" s="8"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B124" s="93"/>
+      <c r="B124" s="13"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10" t="s">
         <v>76</v>
@@ -3053,34 +3053,34 @@
         <v>17</v>
       </c>
       <c r="G124" s="2"/>
-      <c r="H124" s="98"/>
-      <c r="I124" s="83"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="16"/>
       <c r="J124" s="8"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B125" s="93"/>
+      <c r="B125" s="13"/>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
       <c r="G125" s="2"/>
-      <c r="H125" s="98"/>
-      <c r="I125" s="83"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="16"/>
       <c r="J125" s="8"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B126" s="93"/>
+      <c r="B126" s="13"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
       <c r="G126" s="2"/>
-      <c r="H126" s="98"/>
-      <c r="I126" s="83"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="16"/>
       <c r="J126" s="8"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B127" s="93"/>
+      <c r="B127" s="13"/>
       <c r="C127" s="10"/>
       <c r="D127" s="10" t="s">
         <v>77</v>
@@ -3090,46 +3090,46 @@
         <v>65</v>
       </c>
       <c r="G127" s="2"/>
-      <c r="H127" s="98"/>
-      <c r="I127" s="83"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="16"/>
       <c r="J127" s="8"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B128" s="93"/>
+      <c r="B128" s="13"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="2"/>
-      <c r="H128" s="98"/>
-      <c r="I128" s="83"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="16"/>
       <c r="J128" s="8"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B129" s="94"/>
+      <c r="B129" s="14"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="99"/>
-      <c r="I129" s="84"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="17"/>
       <c r="J129" s="9"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B130" s="92" t="s">
+      <c r="B130" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C130" s="75" t="s">
+      <c r="C130" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D130" s="75" t="s">
+      <c r="D130" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E130" s="75" t="s">
+      <c r="E130" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F130" s="75" t="s">
+      <c r="F130" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G130" s="1" t="s">
@@ -3146,29 +3146,29 @@
       </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B131" s="93"/>
+      <c r="B131" s="13"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
-      <c r="I131" s="83"/>
+      <c r="I131" s="16"/>
       <c r="J131" s="8"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B132" s="93"/>
+      <c r="B132" s="13"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
-      <c r="I132" s="83"/>
+      <c r="I132" s="16"/>
       <c r="J132" s="8"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B133" s="93"/>
+      <c r="B133" s="13"/>
       <c r="C133" s="10"/>
       <c r="D133" s="10" t="s">
         <v>70</v>
@@ -3181,33 +3181,33 @@
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
-      <c r="I133" s="83"/>
+      <c r="I133" s="16"/>
       <c r="J133" s="8"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B134" s="93"/>
+      <c r="B134" s="13"/>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
-      <c r="I134" s="83"/>
+      <c r="I134" s="16"/>
       <c r="J134" s="8"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B135" s="93"/>
+      <c r="B135" s="13"/>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
-      <c r="I135" s="83"/>
+      <c r="I135" s="16"/>
       <c r="J135" s="8"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B136" s="93"/>
+      <c r="B136" s="13"/>
       <c r="C136" s="10"/>
       <c r="D136" s="10" t="s">
         <v>71</v>
@@ -3220,33 +3220,33 @@
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
-      <c r="I136" s="83"/>
+      <c r="I136" s="16"/>
       <c r="J136" s="8"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B137" s="93"/>
+      <c r="B137" s="13"/>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
-      <c r="I137" s="83"/>
+      <c r="I137" s="16"/>
       <c r="J137" s="8"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B138" s="93"/>
+      <c r="B138" s="13"/>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
-      <c r="I138" s="83"/>
+      <c r="I138" s="16"/>
       <c r="J138" s="8"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B139" s="93"/>
+      <c r="B139" s="13"/>
       <c r="C139" s="10"/>
       <c r="D139" s="10" t="s">
         <v>30</v>
@@ -3259,33 +3259,33 @@
       </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
-      <c r="I139" s="83"/>
+      <c r="I139" s="16"/>
       <c r="J139" s="8"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B140" s="93"/>
+      <c r="B140" s="13"/>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
-      <c r="I140" s="83"/>
+      <c r="I140" s="16"/>
       <c r="J140" s="8"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B141" s="93"/>
+      <c r="B141" s="13"/>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
-      <c r="I141" s="83"/>
+      <c r="I141" s="16"/>
       <c r="J141" s="8"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B142" s="93"/>
+      <c r="B142" s="13"/>
       <c r="C142" s="10"/>
       <c r="D142" s="10" t="s">
         <v>74</v>
@@ -3298,33 +3298,33 @@
       </c>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
-      <c r="I142" s="83"/>
+      <c r="I142" s="16"/>
       <c r="J142" s="8"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B143" s="93"/>
+      <c r="B143" s="13"/>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
-      <c r="I143" s="83"/>
+      <c r="I143" s="16"/>
       <c r="J143" s="8"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B144" s="93"/>
+      <c r="B144" s="13"/>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
-      <c r="I144" s="83"/>
+      <c r="I144" s="16"/>
       <c r="J144" s="8"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B145" s="93"/>
+      <c r="B145" s="13"/>
       <c r="C145" s="10"/>
       <c r="D145" s="10" t="s">
         <v>76</v>
@@ -3337,33 +3337,33 @@
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
-      <c r="I145" s="83"/>
+      <c r="I145" s="16"/>
       <c r="J145" s="8"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B146" s="93"/>
+      <c r="B146" s="13"/>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
-      <c r="I146" s="83"/>
+      <c r="I146" s="16"/>
       <c r="J146" s="8"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B147" s="93"/>
+      <c r="B147" s="13"/>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
-      <c r="I147" s="83"/>
+      <c r="I147" s="16"/>
       <c r="J147" s="8"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B148" s="93"/>
+      <c r="B148" s="13"/>
       <c r="C148" s="10"/>
       <c r="D148" s="10" t="s">
         <v>77</v>
@@ -3374,45 +3374,45 @@
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
-      <c r="I148" s="83"/>
+      <c r="I148" s="16"/>
       <c r="J148" s="8"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B149" s="93"/>
+      <c r="B149" s="13"/>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
-      <c r="I149" s="83"/>
+      <c r="I149" s="16"/>
       <c r="J149" s="8"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B150" s="94"/>
+      <c r="B150" s="14"/>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
-      <c r="I150" s="84"/>
+      <c r="I150" s="17"/>
       <c r="J150" s="9"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B151" s="92" t="s">
+      <c r="B151" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C151" s="75" t="s">
+      <c r="C151" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D151" s="75" t="s">
+      <c r="D151" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E151" s="75" t="s">
+      <c r="E151" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F151" s="75" t="s">
+      <c r="F151" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G151" s="1" t="s">
@@ -3429,7 +3429,7 @@
       </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B152" s="93"/>
+      <c r="B152" s="13"/>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="10"/>
@@ -3440,7 +3440,7 @@
       <c r="J152" s="8"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B153" s="93"/>
+      <c r="B153" s="13"/>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
@@ -3451,7 +3451,7 @@
       <c r="J153" s="8"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B154" s="93"/>
+      <c r="B154" s="13"/>
       <c r="C154" s="10"/>
       <c r="D154" s="10" t="s">
         <v>70</v>
@@ -3468,7 +3468,7 @@
       <c r="J154" s="8"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B155" s="93"/>
+      <c r="B155" s="13"/>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
       <c r="E155" s="10"/>
@@ -3479,7 +3479,7 @@
       <c r="J155" s="8"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B156" s="93"/>
+      <c r="B156" s="13"/>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
       <c r="E156" s="10"/>
@@ -3490,7 +3490,7 @@
       <c r="J156" s="8"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B157" s="93"/>
+      <c r="B157" s="13"/>
       <c r="C157" s="10"/>
       <c r="D157" s="10" t="s">
         <v>71</v>
@@ -3507,7 +3507,7 @@
       <c r="J157" s="8"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B158" s="93"/>
+      <c r="B158" s="13"/>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="10"/>
@@ -3518,7 +3518,7 @@
       <c r="J158" s="8"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B159" s="93"/>
+      <c r="B159" s="13"/>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="10"/>
@@ -3529,7 +3529,7 @@
       <c r="J159" s="8"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B160" s="93"/>
+      <c r="B160" s="13"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10" t="s">
         <v>30</v>
@@ -3546,7 +3546,7 @@
       <c r="J160" s="8"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B161" s="93"/>
+      <c r="B161" s="13"/>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="10"/>
@@ -3557,7 +3557,7 @@
       <c r="J161" s="8"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B162" s="93"/>
+      <c r="B162" s="13"/>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="10"/>
@@ -3568,7 +3568,7 @@
       <c r="J162" s="8"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B163" s="93"/>
+      <c r="B163" s="13"/>
       <c r="C163" s="10"/>
       <c r="D163" s="10" t="s">
         <v>74</v>
@@ -3585,7 +3585,7 @@
       <c r="J163" s="8"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B164" s="93"/>
+      <c r="B164" s="13"/>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
       <c r="E164" s="10"/>
@@ -3596,7 +3596,7 @@
       <c r="J164" s="8"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B165" s="93"/>
+      <c r="B165" s="13"/>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="10"/>
@@ -3607,7 +3607,7 @@
       <c r="J165" s="8"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B166" s="93"/>
+      <c r="B166" s="13"/>
       <c r="C166" s="10"/>
       <c r="D166" s="10" t="s">
         <v>79</v>
@@ -3624,7 +3624,7 @@
       <c r="J166" s="8"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B167" s="93"/>
+      <c r="B167" s="13"/>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
@@ -3635,7 +3635,7 @@
       <c r="J167" s="8"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B168" s="93"/>
+      <c r="B168" s="13"/>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
@@ -3646,7 +3646,7 @@
       <c r="J168" s="8"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B169" s="93"/>
+      <c r="B169" s="13"/>
       <c r="C169" s="10"/>
       <c r="D169" s="10" t="s">
         <v>77</v>
@@ -3661,7 +3661,7 @@
       <c r="J169" s="8"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B170" s="93"/>
+      <c r="B170" s="13"/>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
@@ -3672,7 +3672,7 @@
       <c r="J170" s="8"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B171" s="94"/>
+      <c r="B171" s="14"/>
       <c r="C171" s="11"/>
       <c r="D171" s="11"/>
       <c r="E171" s="11"/>
@@ -3683,56 +3683,56 @@
       <c r="J171" s="9"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B172" s="92" t="s">
+      <c r="B172" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C172" s="75" t="s">
+      <c r="C172" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D172" s="75" t="s">
+      <c r="D172" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E172" s="75" t="s">
+      <c r="E172" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F172" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G172" s="75" t="s">
+      <c r="F172" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172" s="15" t="s">
         <v>81</v>
       </c>
       <c r="H172" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I172" s="82" t="s">
+      <c r="I172" s="22" t="s">
         <v>126</v>
       </c>
       <c r="J172" s="7"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B173" s="93"/>
+      <c r="B173" s="13"/>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>
       <c r="H173" s="8"/>
-      <c r="I173" s="83"/>
+      <c r="I173" s="16"/>
       <c r="J173" s="8"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B174" s="93"/>
+      <c r="B174" s="13"/>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
       <c r="H174" s="8"/>
-      <c r="I174" s="83"/>
+      <c r="I174" s="16"/>
       <c r="J174" s="8"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B175" s="93"/>
+      <c r="B175" s="13"/>
       <c r="C175" s="10"/>
       <c r="D175" s="10" t="s">
         <v>70</v>
@@ -3745,33 +3745,33 @@
       </c>
       <c r="G175" s="10"/>
       <c r="H175" s="8"/>
-      <c r="I175" s="83"/>
+      <c r="I175" s="16"/>
       <c r="J175" s="8"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B176" s="93"/>
+      <c r="B176" s="13"/>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
       <c r="H176" s="8"/>
-      <c r="I176" s="83"/>
+      <c r="I176" s="16"/>
       <c r="J176" s="8"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B177" s="93"/>
+      <c r="B177" s="13"/>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="10"/>
       <c r="H177" s="8"/>
-      <c r="I177" s="83"/>
+      <c r="I177" s="16"/>
       <c r="J177" s="8"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B178" s="93"/>
+      <c r="B178" s="13"/>
       <c r="C178" s="10"/>
       <c r="D178" s="10" t="s">
         <v>71</v>
@@ -3784,33 +3784,33 @@
       </c>
       <c r="G178" s="10"/>
       <c r="H178" s="8"/>
-      <c r="I178" s="83"/>
+      <c r="I178" s="16"/>
       <c r="J178" s="8"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B179" s="93"/>
+      <c r="B179" s="13"/>
       <c r="C179" s="10"/>
       <c r="D179" s="10"/>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
       <c r="G179" s="10"/>
       <c r="H179" s="8"/>
-      <c r="I179" s="83"/>
+      <c r="I179" s="16"/>
       <c r="J179" s="8"/>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B180" s="93"/>
+      <c r="B180" s="13"/>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
       <c r="H180" s="8"/>
-      <c r="I180" s="83"/>
+      <c r="I180" s="16"/>
       <c r="J180" s="8"/>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B181" s="93"/>
+      <c r="B181" s="13"/>
       <c r="C181" s="10"/>
       <c r="D181" s="10" t="s">
         <v>30</v>
@@ -3823,33 +3823,33 @@
       </c>
       <c r="G181" s="10"/>
       <c r="H181" s="8"/>
-      <c r="I181" s="83"/>
+      <c r="I181" s="16"/>
       <c r="J181" s="8"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B182" s="93"/>
+      <c r="B182" s="13"/>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
       <c r="H182" s="8"/>
-      <c r="I182" s="83"/>
+      <c r="I182" s="16"/>
       <c r="J182" s="8"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B183" s="93"/>
+      <c r="B183" s="13"/>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="10"/>
       <c r="H183" s="8"/>
-      <c r="I183" s="83"/>
+      <c r="I183" s="16"/>
       <c r="J183" s="8"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B184" s="93"/>
+      <c r="B184" s="13"/>
       <c r="C184" s="10"/>
       <c r="D184" s="10" t="s">
         <v>74</v>
@@ -3862,33 +3862,33 @@
       </c>
       <c r="G184" s="10"/>
       <c r="H184" s="8"/>
-      <c r="I184" s="83"/>
+      <c r="I184" s="16"/>
       <c r="J184" s="8"/>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B185" s="93"/>
+      <c r="B185" s="13"/>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
       <c r="G185" s="10"/>
       <c r="H185" s="8"/>
-      <c r="I185" s="83"/>
+      <c r="I185" s="16"/>
       <c r="J185" s="8"/>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B186" s="93"/>
+      <c r="B186" s="13"/>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
       <c r="G186" s="10"/>
       <c r="H186" s="8"/>
-      <c r="I186" s="83"/>
+      <c r="I186" s="16"/>
       <c r="J186" s="8"/>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B187" s="93"/>
+      <c r="B187" s="13"/>
       <c r="C187" s="10"/>
       <c r="D187" s="10" t="s">
         <v>79</v>
@@ -3901,33 +3901,33 @@
       </c>
       <c r="G187" s="10"/>
       <c r="H187" s="8"/>
-      <c r="I187" s="83"/>
+      <c r="I187" s="16"/>
       <c r="J187" s="8"/>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B188" s="93"/>
+      <c r="B188" s="13"/>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
       <c r="G188" s="10"/>
       <c r="H188" s="8"/>
-      <c r="I188" s="83"/>
+      <c r="I188" s="16"/>
       <c r="J188" s="8"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B189" s="93"/>
+      <c r="B189" s="13"/>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
       <c r="G189" s="10"/>
       <c r="H189" s="8"/>
-      <c r="I189" s="83"/>
+      <c r="I189" s="16"/>
       <c r="J189" s="8"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B190" s="93"/>
+      <c r="B190" s="13"/>
       <c r="C190" s="10"/>
       <c r="D190" s="10" t="s">
         <v>77</v>
@@ -3938,45 +3938,45 @@
       </c>
       <c r="G190" s="10"/>
       <c r="H190" s="8"/>
-      <c r="I190" s="83"/>
+      <c r="I190" s="16"/>
       <c r="J190" s="8"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B191" s="93"/>
+      <c r="B191" s="13"/>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
       <c r="H191" s="8"/>
-      <c r="I191" s="83"/>
+      <c r="I191" s="16"/>
       <c r="J191" s="8"/>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B192" s="94"/>
+      <c r="B192" s="14"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
       <c r="H192" s="9"/>
-      <c r="I192" s="84"/>
+      <c r="I192" s="17"/>
       <c r="J192" s="9"/>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B193" s="92" t="s">
+      <c r="B193" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C193" s="75" t="s">
+      <c r="C193" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D193" s="75" t="s">
+      <c r="D193" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E193" s="75" t="s">
+      <c r="E193" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F193" s="75" t="s">
+      <c r="F193" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G193" s="1" t="s">
@@ -3993,7 +3993,7 @@
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B194" s="93"/>
+      <c r="B194" s="13"/>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
       <c r="E194" s="10"/>
@@ -4004,7 +4004,7 @@
       <c r="J194" s="8"/>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B195" s="93"/>
+      <c r="B195" s="13"/>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
       <c r="E195" s="10"/>
@@ -4015,7 +4015,7 @@
       <c r="J195" s="8"/>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B196" s="93"/>
+      <c r="B196" s="13"/>
       <c r="C196" s="10"/>
       <c r="D196" s="10" t="s">
         <v>70</v>
@@ -4032,7 +4032,7 @@
       <c r="J196" s="8"/>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B197" s="93"/>
+      <c r="B197" s="13"/>
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
       <c r="E197" s="10"/>
@@ -4043,7 +4043,7 @@
       <c r="J197" s="8"/>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B198" s="93"/>
+      <c r="B198" s="13"/>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
       <c r="E198" s="10"/>
@@ -4054,7 +4054,7 @@
       <c r="J198" s="8"/>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B199" s="93"/>
+      <c r="B199" s="13"/>
       <c r="C199" s="10"/>
       <c r="D199" s="10" t="s">
         <v>71</v>
@@ -4071,7 +4071,7 @@
       <c r="J199" s="8"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B200" s="93"/>
+      <c r="B200" s="13"/>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
       <c r="E200" s="10"/>
@@ -4082,7 +4082,7 @@
       <c r="J200" s="8"/>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B201" s="93"/>
+      <c r="B201" s="13"/>
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
       <c r="E201" s="10"/>
@@ -4093,7 +4093,7 @@
       <c r="J201" s="8"/>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B202" s="93"/>
+      <c r="B202" s="13"/>
       <c r="C202" s="10"/>
       <c r="D202" s="10" t="s">
         <v>30</v>
@@ -4110,7 +4110,7 @@
       <c r="J202" s="8"/>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B203" s="93"/>
+      <c r="B203" s="13"/>
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
       <c r="E203" s="10"/>
@@ -4121,7 +4121,7 @@
       <c r="J203" s="8"/>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B204" s="93"/>
+      <c r="B204" s="13"/>
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
       <c r="E204" s="10"/>
@@ -4132,7 +4132,7 @@
       <c r="J204" s="8"/>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B205" s="93"/>
+      <c r="B205" s="13"/>
       <c r="C205" s="10"/>
       <c r="D205" s="10" t="s">
         <v>74</v>
@@ -4149,7 +4149,7 @@
       <c r="J205" s="8"/>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B206" s="93"/>
+      <c r="B206" s="13"/>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
       <c r="E206" s="10"/>
@@ -4160,7 +4160,7 @@
       <c r="J206" s="8"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B207" s="93"/>
+      <c r="B207" s="13"/>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
       <c r="E207" s="10"/>
@@ -4171,7 +4171,7 @@
       <c r="J207" s="8"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B208" s="93"/>
+      <c r="B208" s="13"/>
       <c r="C208" s="10"/>
       <c r="D208" s="10" t="s">
         <v>79</v>
@@ -4188,7 +4188,7 @@
       <c r="J208" s="8"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B209" s="93"/>
+      <c r="B209" s="13"/>
       <c r="C209" s="10"/>
       <c r="D209" s="10"/>
       <c r="E209" s="10"/>
@@ -4199,7 +4199,7 @@
       <c r="J209" s="8"/>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B210" s="93"/>
+      <c r="B210" s="13"/>
       <c r="C210" s="10"/>
       <c r="D210" s="10"/>
       <c r="E210" s="10"/>
@@ -4210,7 +4210,7 @@
       <c r="J210" s="8"/>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B211" s="93"/>
+      <c r="B211" s="13"/>
       <c r="C211" s="10"/>
       <c r="D211" s="10" t="s">
         <v>77</v>
@@ -4225,7 +4225,7 @@
       <c r="J211" s="8"/>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B212" s="93"/>
+      <c r="B212" s="13"/>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
       <c r="E212" s="10"/>
@@ -4236,7 +4236,7 @@
       <c r="J212" s="8"/>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B213" s="94"/>
+      <c r="B213" s="14"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
       <c r="E213" s="11"/>
@@ -4247,19 +4247,19 @@
       <c r="J213" s="9"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B214" s="92" t="s">
+      <c r="B214" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C214" s="75" t="s">
+      <c r="C214" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D214" s="75" t="s">
+      <c r="D214" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E214" s="75" t="s">
+      <c r="E214" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F214" s="75" t="s">
+      <c r="F214" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G214" s="1" t="s">
@@ -4276,7 +4276,7 @@
       </c>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B215" s="93"/>
+      <c r="B215" s="13"/>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
       <c r="E215" s="10"/>
@@ -4287,7 +4287,7 @@
       <c r="J215" s="8"/>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B216" s="93"/>
+      <c r="B216" s="13"/>
       <c r="C216" s="10"/>
       <c r="D216" s="10"/>
       <c r="E216" s="10"/>
@@ -4298,7 +4298,7 @@
       <c r="J216" s="8"/>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B217" s="93"/>
+      <c r="B217" s="13"/>
       <c r="C217" s="10"/>
       <c r="D217" s="10" t="s">
         <v>70</v>
@@ -4315,7 +4315,7 @@
       <c r="J217" s="8"/>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B218" s="93"/>
+      <c r="B218" s="13"/>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
       <c r="E218" s="10"/>
@@ -4326,7 +4326,7 @@
       <c r="J218" s="8"/>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B219" s="93"/>
+      <c r="B219" s="13"/>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
       <c r="E219" s="10"/>
@@ -4337,7 +4337,7 @@
       <c r="J219" s="8"/>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B220" s="93"/>
+      <c r="B220" s="13"/>
       <c r="C220" s="10"/>
       <c r="D220" s="10" t="s">
         <v>71</v>
@@ -4354,7 +4354,7 @@
       <c r="J220" s="8"/>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B221" s="93"/>
+      <c r="B221" s="13"/>
       <c r="C221" s="10"/>
       <c r="D221" s="10"/>
       <c r="E221" s="10"/>
@@ -4365,7 +4365,7 @@
       <c r="J221" s="8"/>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B222" s="93"/>
+      <c r="B222" s="13"/>
       <c r="C222" s="10"/>
       <c r="D222" s="10"/>
       <c r="E222" s="10"/>
@@ -4376,7 +4376,7 @@
       <c r="J222" s="8"/>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B223" s="93"/>
+      <c r="B223" s="13"/>
       <c r="C223" s="10"/>
       <c r="D223" s="10" t="s">
         <v>30</v>
@@ -4393,7 +4393,7 @@
       <c r="J223" s="8"/>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B224" s="93"/>
+      <c r="B224" s="13"/>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
       <c r="E224" s="10"/>
@@ -4404,7 +4404,7 @@
       <c r="J224" s="8"/>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B225" s="93"/>
+      <c r="B225" s="13"/>
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
       <c r="E225" s="10"/>
@@ -4415,7 +4415,7 @@
       <c r="J225" s="8"/>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B226" s="93"/>
+      <c r="B226" s="13"/>
       <c r="C226" s="10"/>
       <c r="D226" s="10" t="s">
         <v>74</v>
@@ -4432,7 +4432,7 @@
       <c r="J226" s="8"/>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B227" s="93"/>
+      <c r="B227" s="13"/>
       <c r="C227" s="10"/>
       <c r="D227" s="10"/>
       <c r="E227" s="10"/>
@@ -4443,7 +4443,7 @@
       <c r="J227" s="8"/>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B228" s="93"/>
+      <c r="B228" s="13"/>
       <c r="C228" s="10"/>
       <c r="D228" s="10"/>
       <c r="E228" s="10"/>
@@ -4454,7 +4454,7 @@
       <c r="J228" s="8"/>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B229" s="93"/>
+      <c r="B229" s="13"/>
       <c r="C229" s="10"/>
       <c r="D229" s="10" t="s">
         <v>79</v>
@@ -4471,7 +4471,7 @@
       <c r="J229" s="8"/>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B230" s="93"/>
+      <c r="B230" s="13"/>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
       <c r="E230" s="10"/>
@@ -4482,7 +4482,7 @@
       <c r="J230" s="8"/>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B231" s="93"/>
+      <c r="B231" s="13"/>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
       <c r="E231" s="10"/>
@@ -4493,7 +4493,7 @@
       <c r="J231" s="8"/>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B232" s="93"/>
+      <c r="B232" s="13"/>
       <c r="C232" s="10"/>
       <c r="D232" s="10" t="s">
         <v>77</v>
@@ -4508,7 +4508,7 @@
       <c r="J232" s="8"/>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B233" s="93"/>
+      <c r="B233" s="13"/>
       <c r="C233" s="10"/>
       <c r="D233" s="10"/>
       <c r="E233" s="10"/>
@@ -4519,7 +4519,7 @@
       <c r="J233" s="8"/>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B234" s="94"/>
+      <c r="B234" s="14"/>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
       <c r="E234" s="11"/>
@@ -4530,56 +4530,56 @@
       <c r="J234" s="9"/>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B235" s="92" t="s">
+      <c r="B235" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C235" s="75" t="s">
+      <c r="C235" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D235" s="75" t="s">
+      <c r="D235" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E235" s="75" t="s">
+      <c r="E235" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F235" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G235" s="75" t="s">
+      <c r="F235" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G235" s="15" t="s">
         <v>83</v>
       </c>
       <c r="H235" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="I235" s="82" t="s">
+      <c r="I235" s="22" t="s">
         <v>126</v>
       </c>
       <c r="J235" s="7"/>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B236" s="93"/>
+      <c r="B236" s="13"/>
       <c r="C236" s="10"/>
       <c r="D236" s="10"/>
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
       <c r="G236" s="10"/>
       <c r="H236" s="8"/>
-      <c r="I236" s="83"/>
+      <c r="I236" s="16"/>
       <c r="J236" s="8"/>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B237" s="93"/>
+      <c r="B237" s="13"/>
       <c r="C237" s="10"/>
       <c r="D237" s="10"/>
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
       <c r="G237" s="10"/>
       <c r="H237" s="8"/>
-      <c r="I237" s="83"/>
+      <c r="I237" s="16"/>
       <c r="J237" s="8"/>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B238" s="93"/>
+      <c r="B238" s="13"/>
       <c r="C238" s="10"/>
       <c r="D238" s="10" t="s">
         <v>70</v>
@@ -4590,33 +4590,33 @@
       </c>
       <c r="G238" s="10"/>
       <c r="H238" s="8"/>
-      <c r="I238" s="83"/>
+      <c r="I238" s="16"/>
       <c r="J238" s="8"/>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B239" s="93"/>
+      <c r="B239" s="13"/>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
       <c r="G239" s="10"/>
       <c r="H239" s="8"/>
-      <c r="I239" s="83"/>
+      <c r="I239" s="16"/>
       <c r="J239" s="8"/>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B240" s="93"/>
+      <c r="B240" s="13"/>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
       <c r="G240" s="10"/>
       <c r="H240" s="8"/>
-      <c r="I240" s="83"/>
+      <c r="I240" s="16"/>
       <c r="J240" s="8"/>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B241" s="93"/>
+      <c r="B241" s="13"/>
       <c r="C241" s="10"/>
       <c r="D241" s="10" t="s">
         <v>71</v>
@@ -4627,33 +4627,33 @@
       </c>
       <c r="G241" s="10"/>
       <c r="H241" s="8"/>
-      <c r="I241" s="83"/>
+      <c r="I241" s="16"/>
       <c r="J241" s="8"/>
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B242" s="93"/>
+      <c r="B242" s="13"/>
       <c r="C242" s="10"/>
       <c r="D242" s="10"/>
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
       <c r="G242" s="10"/>
       <c r="H242" s="8"/>
-      <c r="I242" s="83"/>
+      <c r="I242" s="16"/>
       <c r="J242" s="8"/>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B243" s="93"/>
+      <c r="B243" s="13"/>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
       <c r="G243" s="10"/>
       <c r="H243" s="8"/>
-      <c r="I243" s="83"/>
+      <c r="I243" s="16"/>
       <c r="J243" s="8"/>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B244" s="93"/>
+      <c r="B244" s="13"/>
       <c r="C244" s="10"/>
       <c r="D244" s="10" t="s">
         <v>30</v>
@@ -4666,33 +4666,33 @@
       </c>
       <c r="G244" s="10"/>
       <c r="H244" s="8"/>
-      <c r="I244" s="83"/>
+      <c r="I244" s="16"/>
       <c r="J244" s="8"/>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B245" s="93"/>
+      <c r="B245" s="13"/>
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
       <c r="G245" s="10"/>
       <c r="H245" s="8"/>
-      <c r="I245" s="83"/>
+      <c r="I245" s="16"/>
       <c r="J245" s="8"/>
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B246" s="93"/>
+      <c r="B246" s="13"/>
       <c r="C246" s="10"/>
       <c r="D246" s="10"/>
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
       <c r="G246" s="10"/>
       <c r="H246" s="8"/>
-      <c r="I246" s="83"/>
+      <c r="I246" s="16"/>
       <c r="J246" s="8"/>
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B247" s="93"/>
+      <c r="B247" s="13"/>
       <c r="C247" s="10"/>
       <c r="D247" s="10" t="s">
         <v>74</v>
@@ -4705,33 +4705,33 @@
       </c>
       <c r="G247" s="10"/>
       <c r="H247" s="8"/>
-      <c r="I247" s="83"/>
+      <c r="I247" s="16"/>
       <c r="J247" s="8"/>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B248" s="93"/>
+      <c r="B248" s="13"/>
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
       <c r="G248" s="10"/>
       <c r="H248" s="8"/>
-      <c r="I248" s="83"/>
+      <c r="I248" s="16"/>
       <c r="J248" s="8"/>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B249" s="93"/>
+      <c r="B249" s="13"/>
       <c r="C249" s="10"/>
       <c r="D249" s="10"/>
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
       <c r="G249" s="10"/>
       <c r="H249" s="8"/>
-      <c r="I249" s="83"/>
+      <c r="I249" s="16"/>
       <c r="J249" s="8"/>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B250" s="93"/>
+      <c r="B250" s="13"/>
       <c r="C250" s="10"/>
       <c r="D250" s="10" t="s">
         <v>79</v>
@@ -4744,33 +4744,33 @@
       </c>
       <c r="G250" s="10"/>
       <c r="H250" s="8"/>
-      <c r="I250" s="83"/>
+      <c r="I250" s="16"/>
       <c r="J250" s="8"/>
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B251" s="93"/>
+      <c r="B251" s="13"/>
       <c r="C251" s="10"/>
       <c r="D251" s="10"/>
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
       <c r="G251" s="10"/>
       <c r="H251" s="8"/>
-      <c r="I251" s="83"/>
+      <c r="I251" s="16"/>
       <c r="J251" s="8"/>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B252" s="93"/>
+      <c r="B252" s="13"/>
       <c r="C252" s="10"/>
       <c r="D252" s="10"/>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="10"/>
       <c r="H252" s="8"/>
-      <c r="I252" s="83"/>
+      <c r="I252" s="16"/>
       <c r="J252" s="8"/>
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B253" s="93"/>
+      <c r="B253" s="13"/>
       <c r="C253" s="10"/>
       <c r="D253" s="10" t="s">
         <v>77</v>
@@ -4781,33 +4781,33 @@
       </c>
       <c r="G253" s="10"/>
       <c r="H253" s="8"/>
-      <c r="I253" s="83"/>
+      <c r="I253" s="16"/>
       <c r="J253" s="8"/>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B254" s="93"/>
+      <c r="B254" s="13"/>
       <c r="C254" s="10"/>
       <c r="D254" s="10"/>
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
       <c r="G254" s="10"/>
       <c r="H254" s="8"/>
-      <c r="I254" s="83"/>
+      <c r="I254" s="16"/>
       <c r="J254" s="8"/>
     </row>
     <row r="255" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B255" s="94"/>
+      <c r="B255" s="14"/>
       <c r="C255" s="11"/>
       <c r="D255" s="11"/>
       <c r="E255" s="11"/>
       <c r="F255" s="11"/>
       <c r="G255" s="11"/>
       <c r="H255" s="9"/>
-      <c r="I255" s="84"/>
+      <c r="I255" s="17"/>
       <c r="J255" s="9"/>
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B256" s="93" t="s">
+      <c r="B256" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C256" s="10" t="s">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="E256" s="10"/>
       <c r="F256" s="10" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G256" s="10" t="s">
         <v>88</v>
@@ -4826,35 +4826,35 @@
       <c r="H256" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="I256" s="83" t="s">
+      <c r="I256" s="16" t="s">
         <v>126</v>
       </c>
       <c r="J256" s="8"/>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B257" s="93"/>
+      <c r="B257" s="13"/>
       <c r="C257" s="10"/>
       <c r="D257" s="10"/>
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="10"/>
       <c r="H257" s="8"/>
-      <c r="I257" s="83"/>
+      <c r="I257" s="16"/>
       <c r="J257" s="8"/>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B258" s="94"/>
+      <c r="B258" s="14"/>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
       <c r="G258" s="11"/>
       <c r="H258" s="9"/>
-      <c r="I258" s="84"/>
+      <c r="I258" s="17"/>
       <c r="J258" s="9"/>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B259" s="93" t="s">
+      <c r="B259" s="13" t="s">
         <v>102</v>
       </c>
       <c r="C259" s="10" t="s">
@@ -4873,35 +4873,35 @@
       <c r="H259" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="I259" s="83" t="s">
+      <c r="I259" s="16" t="s">
         <v>126</v>
       </c>
       <c r="J259" s="8"/>
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B260" s="93"/>
+      <c r="B260" s="13"/>
       <c r="C260" s="10"/>
       <c r="D260" s="10"/>
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
       <c r="G260" s="10"/>
       <c r="H260" s="8"/>
-      <c r="I260" s="83"/>
+      <c r="I260" s="16"/>
       <c r="J260" s="8"/>
     </row>
     <row r="261" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B261" s="94"/>
+      <c r="B261" s="14"/>
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
       <c r="E261" s="11"/>
       <c r="F261" s="11"/>
       <c r="G261" s="11"/>
       <c r="H261" s="9"/>
-      <c r="I261" s="84"/>
+      <c r="I261" s="17"/>
       <c r="J261" s="9"/>
     </row>
     <row r="262" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B262" s="93" t="s">
+      <c r="B262" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C262" s="10" t="s">
@@ -4920,84 +4920,84 @@
       <c r="H262" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="I262" s="83" t="s">
+      <c r="I262" s="16" t="s">
         <v>126</v>
       </c>
       <c r="J262" s="8"/>
     </row>
     <row r="263" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B263" s="93"/>
+      <c r="B263" s="13"/>
       <c r="C263" s="10"/>
       <c r="D263" s="10"/>
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
       <c r="G263" s="10"/>
       <c r="H263" s="8"/>
-      <c r="I263" s="83"/>
+      <c r="I263" s="16"/>
       <c r="J263" s="8"/>
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B264" s="94"/>
+      <c r="B264" s="14"/>
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
       <c r="G264" s="11"/>
       <c r="H264" s="9"/>
-      <c r="I264" s="84"/>
+      <c r="I264" s="17"/>
       <c r="J264" s="9"/>
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B265" s="92" t="s">
+      <c r="B265" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C265" s="75" t="s">
+      <c r="C265" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D265" s="75" t="s">
+      <c r="D265" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E265" s="75" t="s">
+      <c r="E265" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F265" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G265" s="75" t="s">
+      <c r="F265" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G265" s="15" t="s">
         <v>112</v>
       </c>
       <c r="H265" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="I265" s="82" t="s">
+      <c r="I265" s="22" t="s">
         <v>126</v>
       </c>
       <c r="J265" s="7"/>
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B266" s="93"/>
+      <c r="B266" s="13"/>
       <c r="C266" s="10"/>
       <c r="D266" s="10"/>
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
       <c r="G266" s="10"/>
       <c r="H266" s="8"/>
-      <c r="I266" s="83"/>
+      <c r="I266" s="16"/>
       <c r="J266" s="8"/>
     </row>
     <row r="267" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B267" s="93"/>
+      <c r="B267" s="13"/>
       <c r="C267" s="10"/>
       <c r="D267" s="10"/>
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
       <c r="G267" s="10"/>
       <c r="H267" s="8"/>
-      <c r="I267" s="83"/>
+      <c r="I267" s="16"/>
       <c r="J267" s="8"/>
     </row>
     <row r="268" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B268" s="93"/>
+      <c r="B268" s="13"/>
       <c r="C268" s="10"/>
       <c r="D268" s="10" t="s">
         <v>98</v>
@@ -5010,33 +5010,33 @@
       </c>
       <c r="G268" s="10"/>
       <c r="H268" s="8"/>
-      <c r="I268" s="83"/>
+      <c r="I268" s="16"/>
       <c r="J268" s="8"/>
     </row>
     <row r="269" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B269" s="93"/>
+      <c r="B269" s="13"/>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
       <c r="G269" s="10"/>
       <c r="H269" s="8"/>
-      <c r="I269" s="83"/>
+      <c r="I269" s="16"/>
       <c r="J269" s="8"/>
     </row>
     <row r="270" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B270" s="93"/>
+      <c r="B270" s="13"/>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
       <c r="G270" s="10"/>
       <c r="H270" s="8"/>
-      <c r="I270" s="83"/>
+      <c r="I270" s="16"/>
       <c r="J270" s="8"/>
     </row>
     <row r="271" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B271" s="93"/>
+      <c r="B271" s="13"/>
       <c r="C271" s="10"/>
       <c r="D271" s="10" t="s">
         <v>100</v>
@@ -5049,33 +5049,33 @@
       </c>
       <c r="G271" s="10"/>
       <c r="H271" s="8"/>
-      <c r="I271" s="83"/>
+      <c r="I271" s="16"/>
       <c r="J271" s="8"/>
     </row>
     <row r="272" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B272" s="93"/>
+      <c r="B272" s="13"/>
       <c r="C272" s="10"/>
       <c r="D272" s="10"/>
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="10"/>
       <c r="H272" s="8"/>
-      <c r="I272" s="83"/>
+      <c r="I272" s="16"/>
       <c r="J272" s="8"/>
     </row>
     <row r="273" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B273" s="93"/>
+      <c r="B273" s="13"/>
       <c r="C273" s="10"/>
       <c r="D273" s="10"/>
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="10"/>
       <c r="H273" s="8"/>
-      <c r="I273" s="83"/>
+      <c r="I273" s="16"/>
       <c r="J273" s="8"/>
     </row>
     <row r="274" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B274" s="93"/>
+      <c r="B274" s="13"/>
       <c r="C274" s="10"/>
       <c r="D274" s="10" t="s">
         <v>108</v>
@@ -5088,33 +5088,33 @@
       </c>
       <c r="G274" s="10"/>
       <c r="H274" s="8"/>
-      <c r="I274" s="83"/>
+      <c r="I274" s="16"/>
       <c r="J274" s="8"/>
     </row>
     <row r="275" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B275" s="93"/>
+      <c r="B275" s="13"/>
       <c r="C275" s="10"/>
       <c r="D275" s="10"/>
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
       <c r="G275" s="10"/>
       <c r="H275" s="8"/>
-      <c r="I275" s="83"/>
+      <c r="I275" s="16"/>
       <c r="J275" s="8"/>
     </row>
     <row r="276" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B276" s="93"/>
+      <c r="B276" s="13"/>
       <c r="C276" s="10"/>
       <c r="D276" s="10"/>
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
       <c r="G276" s="10"/>
       <c r="H276" s="8"/>
-      <c r="I276" s="83"/>
+      <c r="I276" s="16"/>
       <c r="J276" s="8"/>
     </row>
     <row r="277" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B277" s="93"/>
+      <c r="B277" s="13"/>
       <c r="C277" s="10"/>
       <c r="D277" s="10" t="s">
         <v>77</v>
@@ -5125,33 +5125,33 @@
       </c>
       <c r="G277" s="10"/>
       <c r="H277" s="8"/>
-      <c r="I277" s="83"/>
+      <c r="I277" s="16"/>
       <c r="J277" s="8"/>
     </row>
     <row r="278" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B278" s="93"/>
+      <c r="B278" s="13"/>
       <c r="C278" s="10"/>
       <c r="D278" s="10"/>
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
       <c r="G278" s="10"/>
       <c r="H278" s="8"/>
-      <c r="I278" s="83"/>
+      <c r="I278" s="16"/>
       <c r="J278" s="8"/>
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B279" s="94"/>
+      <c r="B279" s="14"/>
       <c r="C279" s="11"/>
       <c r="D279" s="11"/>
       <c r="E279" s="11"/>
       <c r="F279" s="11"/>
       <c r="G279" s="11"/>
       <c r="H279" s="9"/>
-      <c r="I279" s="84"/>
+      <c r="I279" s="17"/>
       <c r="J279" s="9"/>
     </row>
     <row r="280" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B280" s="93" t="s">
+      <c r="B280" s="13" t="s">
         <v>167</v>
       </c>
       <c r="C280" s="10" t="s">
@@ -5170,84 +5170,84 @@
       <c r="H280" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="I280" s="83" t="s">
+      <c r="I280" s="16" t="s">
         <v>126</v>
       </c>
       <c r="J280" s="8"/>
     </row>
     <row r="281" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B281" s="93"/>
+      <c r="B281" s="13"/>
       <c r="C281" s="10"/>
       <c r="D281" s="10"/>
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
       <c r="G281" s="10"/>
       <c r="H281" s="8"/>
-      <c r="I281" s="83"/>
+      <c r="I281" s="16"/>
       <c r="J281" s="8"/>
     </row>
     <row r="282" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B282" s="94"/>
+      <c r="B282" s="14"/>
       <c r="C282" s="11"/>
       <c r="D282" s="11"/>
       <c r="E282" s="11"/>
       <c r="F282" s="11"/>
       <c r="G282" s="11"/>
       <c r="H282" s="9"/>
-      <c r="I282" s="84"/>
+      <c r="I282" s="17"/>
       <c r="J282" s="9"/>
     </row>
     <row r="283" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B283" s="92" t="s">
+      <c r="B283" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C283" s="75" t="s">
+      <c r="C283" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D283" s="75" t="s">
+      <c r="D283" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E283" s="75" t="s">
+      <c r="E283" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F283" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G283" s="75" t="s">
+      <c r="F283" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G283" s="15" t="s">
         <v>81</v>
       </c>
       <c r="H283" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="I283" s="82" t="s">
+      <c r="I283" s="22" t="s">
         <v>126</v>
       </c>
       <c r="J283" s="7"/>
     </row>
     <row r="284" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B284" s="93"/>
+      <c r="B284" s="13"/>
       <c r="C284" s="10"/>
       <c r="D284" s="10"/>
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
       <c r="G284" s="10"/>
       <c r="H284" s="8"/>
-      <c r="I284" s="83"/>
+      <c r="I284" s="16"/>
       <c r="J284" s="8"/>
     </row>
     <row r="285" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B285" s="93"/>
+      <c r="B285" s="13"/>
       <c r="C285" s="10"/>
       <c r="D285" s="10"/>
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
       <c r="G285" s="10"/>
       <c r="H285" s="8"/>
-      <c r="I285" s="83"/>
+      <c r="I285" s="16"/>
       <c r="J285" s="8"/>
     </row>
     <row r="286" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B286" s="93"/>
+      <c r="B286" s="13"/>
       <c r="C286" s="10"/>
       <c r="D286" s="10" t="s">
         <v>98</v>
@@ -5260,33 +5260,33 @@
       </c>
       <c r="G286" s="10"/>
       <c r="H286" s="8"/>
-      <c r="I286" s="83"/>
+      <c r="I286" s="16"/>
       <c r="J286" s="8"/>
     </row>
     <row r="287" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B287" s="93"/>
+      <c r="B287" s="13"/>
       <c r="C287" s="10"/>
       <c r="D287" s="10"/>
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
       <c r="G287" s="10"/>
       <c r="H287" s="8"/>
-      <c r="I287" s="83"/>
+      <c r="I287" s="16"/>
       <c r="J287" s="8"/>
     </row>
     <row r="288" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B288" s="93"/>
+      <c r="B288" s="13"/>
       <c r="C288" s="10"/>
       <c r="D288" s="10"/>
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
       <c r="G288" s="10"/>
       <c r="H288" s="8"/>
-      <c r="I288" s="83"/>
+      <c r="I288" s="16"/>
       <c r="J288" s="8"/>
     </row>
     <row r="289" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B289" s="93"/>
+      <c r="B289" s="13"/>
       <c r="C289" s="10"/>
       <c r="D289" s="10" t="s">
         <v>100</v>
@@ -5299,33 +5299,33 @@
       </c>
       <c r="G289" s="10"/>
       <c r="H289" s="8"/>
-      <c r="I289" s="83"/>
+      <c r="I289" s="16"/>
       <c r="J289" s="8"/>
     </row>
     <row r="290" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B290" s="93"/>
+      <c r="B290" s="13"/>
       <c r="C290" s="10"/>
       <c r="D290" s="10"/>
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
       <c r="G290" s="10"/>
       <c r="H290" s="8"/>
-      <c r="I290" s="83"/>
+      <c r="I290" s="16"/>
       <c r="J290" s="8"/>
     </row>
     <row r="291" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B291" s="93"/>
+      <c r="B291" s="13"/>
       <c r="C291" s="10"/>
       <c r="D291" s="10"/>
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
       <c r="G291" s="10"/>
       <c r="H291" s="8"/>
-      <c r="I291" s="83"/>
+      <c r="I291" s="16"/>
       <c r="J291" s="8"/>
     </row>
     <row r="292" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B292" s="93"/>
+      <c r="B292" s="13"/>
       <c r="C292" s="10"/>
       <c r="D292" s="10" t="s">
         <v>108</v>
@@ -5338,33 +5338,33 @@
       </c>
       <c r="G292" s="10"/>
       <c r="H292" s="8"/>
-      <c r="I292" s="83"/>
+      <c r="I292" s="16"/>
       <c r="J292" s="8"/>
     </row>
     <row r="293" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B293" s="93"/>
+      <c r="B293" s="13"/>
       <c r="C293" s="10"/>
       <c r="D293" s="10"/>
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
       <c r="G293" s="10"/>
       <c r="H293" s="8"/>
-      <c r="I293" s="83"/>
+      <c r="I293" s="16"/>
       <c r="J293" s="8"/>
     </row>
     <row r="294" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B294" s="93"/>
+      <c r="B294" s="13"/>
       <c r="C294" s="10"/>
       <c r="D294" s="10"/>
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
       <c r="G294" s="10"/>
       <c r="H294" s="8"/>
-      <c r="I294" s="83"/>
+      <c r="I294" s="16"/>
       <c r="J294" s="8"/>
     </row>
     <row r="295" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B295" s="93"/>
+      <c r="B295" s="13"/>
       <c r="C295" s="10"/>
       <c r="D295" s="10" t="s">
         <v>74</v>
@@ -5377,33 +5377,33 @@
       </c>
       <c r="G295" s="10"/>
       <c r="H295" s="8"/>
-      <c r="I295" s="83"/>
+      <c r="I295" s="16"/>
       <c r="J295" s="8"/>
     </row>
     <row r="296" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B296" s="93"/>
+      <c r="B296" s="13"/>
       <c r="C296" s="10"/>
       <c r="D296" s="10"/>
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
       <c r="G296" s="10"/>
       <c r="H296" s="8"/>
-      <c r="I296" s="83"/>
+      <c r="I296" s="16"/>
       <c r="J296" s="8"/>
     </row>
     <row r="297" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B297" s="93"/>
+      <c r="B297" s="13"/>
       <c r="C297" s="10"/>
       <c r="D297" s="10"/>
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
       <c r="G297" s="10"/>
       <c r="H297" s="8"/>
-      <c r="I297" s="83"/>
+      <c r="I297" s="16"/>
       <c r="J297" s="8"/>
     </row>
     <row r="298" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B298" s="93"/>
+      <c r="B298" s="13"/>
       <c r="C298" s="10"/>
       <c r="D298" s="10" t="s">
         <v>79</v>
@@ -5416,33 +5416,33 @@
       </c>
       <c r="G298" s="10"/>
       <c r="H298" s="8"/>
-      <c r="I298" s="83"/>
+      <c r="I298" s="16"/>
       <c r="J298" s="8"/>
     </row>
     <row r="299" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B299" s="93"/>
+      <c r="B299" s="13"/>
       <c r="C299" s="10"/>
       <c r="D299" s="10"/>
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
       <c r="G299" s="10"/>
       <c r="H299" s="8"/>
-      <c r="I299" s="83"/>
+      <c r="I299" s="16"/>
       <c r="J299" s="8"/>
     </row>
     <row r="300" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B300" s="93"/>
+      <c r="B300" s="13"/>
       <c r="C300" s="10"/>
       <c r="D300" s="10"/>
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
       <c r="G300" s="10"/>
       <c r="H300" s="8"/>
-      <c r="I300" s="83"/>
+      <c r="I300" s="16"/>
       <c r="J300" s="8"/>
     </row>
     <row r="301" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B301" s="93"/>
+      <c r="B301" s="13"/>
       <c r="C301" s="10"/>
       <c r="D301" s="10" t="s">
         <v>77</v>
@@ -5453,33 +5453,33 @@
       </c>
       <c r="G301" s="10"/>
       <c r="H301" s="8"/>
-      <c r="I301" s="83"/>
+      <c r="I301" s="16"/>
       <c r="J301" s="8"/>
     </row>
     <row r="302" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B302" s="93"/>
+      <c r="B302" s="13"/>
       <c r="C302" s="10"/>
       <c r="D302" s="10"/>
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
       <c r="G302" s="10"/>
       <c r="H302" s="8"/>
-      <c r="I302" s="83"/>
+      <c r="I302" s="16"/>
       <c r="J302" s="8"/>
     </row>
     <row r="303" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B303" s="94"/>
+      <c r="B303" s="14"/>
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
       <c r="G303" s="11"/>
       <c r="H303" s="9"/>
-      <c r="I303" s="84"/>
+      <c r="I303" s="17"/>
       <c r="J303" s="9"/>
     </row>
     <row r="304" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B304" s="93" t="s">
+      <c r="B304" s="13" t="s">
         <v>161</v>
       </c>
       <c r="C304" s="10" t="s">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="E304" s="10"/>
       <c r="F304" s="10" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G304" s="10" t="s">
         <v>88</v>
@@ -5498,35 +5498,35 @@
       <c r="H304" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="I304" s="83" t="s">
+      <c r="I304" s="16" t="s">
         <v>126</v>
       </c>
       <c r="J304" s="8"/>
     </row>
     <row r="305" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B305" s="93"/>
+      <c r="B305" s="13"/>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
       <c r="G305" s="10"/>
       <c r="H305" s="8"/>
-      <c r="I305" s="83"/>
+      <c r="I305" s="16"/>
       <c r="J305" s="8"/>
     </row>
     <row r="306" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B306" s="94"/>
+      <c r="B306" s="14"/>
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
       <c r="G306" s="11"/>
       <c r="H306" s="9"/>
-      <c r="I306" s="84"/>
+      <c r="I306" s="17"/>
       <c r="J306" s="9"/>
     </row>
     <row r="307" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B307" s="93" t="s">
+      <c r="B307" s="13" t="s">
         <v>168</v>
       </c>
       <c r="C307" s="10" t="s">
@@ -5545,137 +5545,363 @@
       <c r="H307" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="I307" s="83" t="s">
+      <c r="I307" s="16" t="s">
         <v>126</v>
       </c>
       <c r="J307" s="8"/>
     </row>
     <row r="308" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B308" s="93"/>
+      <c r="B308" s="13"/>
       <c r="C308" s="10"/>
       <c r="D308" s="10"/>
       <c r="E308" s="10"/>
       <c r="F308" s="10"/>
       <c r="G308" s="10"/>
       <c r="H308" s="8"/>
-      <c r="I308" s="83"/>
+      <c r="I308" s="16"/>
       <c r="J308" s="8"/>
     </row>
     <row r="309" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B309" s="100"/>
-      <c r="C309" s="101"/>
-      <c r="D309" s="101"/>
-      <c r="E309" s="101"/>
-      <c r="F309" s="101"/>
-      <c r="G309" s="101"/>
-      <c r="H309" s="102"/>
-      <c r="I309" s="103"/>
-      <c r="J309" s="102"/>
+      <c r="B309" s="18"/>
+      <c r="C309" s="19"/>
+      <c r="D309" s="19"/>
+      <c r="E309" s="19"/>
+      <c r="F309" s="19"/>
+      <c r="G309" s="19"/>
+      <c r="H309" s="20"/>
+      <c r="I309" s="21"/>
+      <c r="J309" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="454">
-    <mergeCell ref="H214:H234"/>
-    <mergeCell ref="I214:I234"/>
-    <mergeCell ref="J214:J234"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="E217:E219"/>
-    <mergeCell ref="F217:F219"/>
-    <mergeCell ref="D220:D222"/>
-    <mergeCell ref="E220:E222"/>
-    <mergeCell ref="F220:F222"/>
-    <mergeCell ref="D223:D225"/>
-    <mergeCell ref="E223:E225"/>
-    <mergeCell ref="F223:F225"/>
-    <mergeCell ref="D226:D228"/>
-    <mergeCell ref="E226:E228"/>
-    <mergeCell ref="F226:F228"/>
-    <mergeCell ref="D229:D231"/>
-    <mergeCell ref="E229:E231"/>
-    <mergeCell ref="F229:F231"/>
-    <mergeCell ref="D232:D234"/>
-    <mergeCell ref="E232:E234"/>
-    <mergeCell ref="F232:F234"/>
-    <mergeCell ref="H151:H171"/>
-    <mergeCell ref="I151:I171"/>
-    <mergeCell ref="J151:J171"/>
-    <mergeCell ref="D154:D156"/>
-    <mergeCell ref="E154:E156"/>
-    <mergeCell ref="F154:F156"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="F157:F159"/>
-    <mergeCell ref="D160:D162"/>
-    <mergeCell ref="E160:E162"/>
-    <mergeCell ref="F160:F162"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="E163:E165"/>
-    <mergeCell ref="F163:F165"/>
-    <mergeCell ref="D166:D168"/>
-    <mergeCell ref="E166:E168"/>
-    <mergeCell ref="F166:F168"/>
-    <mergeCell ref="D169:D171"/>
-    <mergeCell ref="E169:E171"/>
-    <mergeCell ref="F169:F171"/>
-    <mergeCell ref="B151:B171"/>
-    <mergeCell ref="C151:C171"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="E151:E153"/>
-    <mergeCell ref="F151:F153"/>
-    <mergeCell ref="G151:G171"/>
-    <mergeCell ref="B130:B150"/>
-    <mergeCell ref="C130:C150"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="E130:E132"/>
-    <mergeCell ref="F130:F132"/>
-    <mergeCell ref="G130:G150"/>
-    <mergeCell ref="H130:H150"/>
-    <mergeCell ref="I130:I150"/>
-    <mergeCell ref="J130:J150"/>
-    <mergeCell ref="D133:D135"/>
-    <mergeCell ref="E133:E135"/>
-    <mergeCell ref="F133:F135"/>
-    <mergeCell ref="D136:D138"/>
-    <mergeCell ref="E136:E138"/>
-    <mergeCell ref="F136:F138"/>
-    <mergeCell ref="D139:D141"/>
-    <mergeCell ref="E139:E141"/>
-    <mergeCell ref="F139:F141"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="F142:F144"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="E145:E147"/>
-    <mergeCell ref="F145:F147"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="E148:E150"/>
-    <mergeCell ref="F148:F150"/>
-    <mergeCell ref="B307:B309"/>
-    <mergeCell ref="C307:C309"/>
-    <mergeCell ref="D307:D309"/>
-    <mergeCell ref="E307:E309"/>
-    <mergeCell ref="F307:F309"/>
-    <mergeCell ref="G307:G309"/>
-    <mergeCell ref="H307:H309"/>
-    <mergeCell ref="I307:I309"/>
-    <mergeCell ref="J307:J309"/>
-    <mergeCell ref="B304:B306"/>
-    <mergeCell ref="C304:C306"/>
-    <mergeCell ref="D304:D306"/>
-    <mergeCell ref="E304:E306"/>
-    <mergeCell ref="F304:F306"/>
-    <mergeCell ref="G304:G306"/>
-    <mergeCell ref="H304:H306"/>
-    <mergeCell ref="I304:I306"/>
-    <mergeCell ref="J304:J306"/>
-    <mergeCell ref="D295:D297"/>
-    <mergeCell ref="E295:E297"/>
-    <mergeCell ref="F295:F297"/>
-    <mergeCell ref="D298:D300"/>
-    <mergeCell ref="E298:E300"/>
-    <mergeCell ref="F298:F300"/>
-    <mergeCell ref="D301:D303"/>
-    <mergeCell ref="E301:E303"/>
-    <mergeCell ref="F301:F303"/>
+    <mergeCell ref="H193:H213"/>
+    <mergeCell ref="I193:I213"/>
+    <mergeCell ref="J193:J213"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="E196:E198"/>
+    <mergeCell ref="F196:F198"/>
+    <mergeCell ref="D199:D201"/>
+    <mergeCell ref="E199:E201"/>
+    <mergeCell ref="F199:F201"/>
+    <mergeCell ref="D202:D204"/>
+    <mergeCell ref="E202:E204"/>
+    <mergeCell ref="F202:F204"/>
+    <mergeCell ref="D205:D207"/>
+    <mergeCell ref="E205:E207"/>
+    <mergeCell ref="F205:F207"/>
+    <mergeCell ref="D208:D210"/>
+    <mergeCell ref="E208:E210"/>
+    <mergeCell ref="F208:F210"/>
+    <mergeCell ref="D211:D213"/>
+    <mergeCell ref="E211:E213"/>
+    <mergeCell ref="F211:F213"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="E3:F5"/>
+    <mergeCell ref="G3:H5"/>
+    <mergeCell ref="I3:J5"/>
+    <mergeCell ref="B6:D8"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:H8"/>
+    <mergeCell ref="I6:J8"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="I19:I27"/>
+    <mergeCell ref="J19:J27"/>
+    <mergeCell ref="B9:D11"/>
+    <mergeCell ref="E9:F11"/>
+    <mergeCell ref="G9:H11"/>
+    <mergeCell ref="I9:J11"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="C28:C42"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G19:G24"/>
+    <mergeCell ref="H19:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="G28:G42"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="H28:H42"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="J43:J57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="I28:I42"/>
+    <mergeCell ref="J28:J42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="I73:I87"/>
+    <mergeCell ref="B43:B57"/>
+    <mergeCell ref="B58:B72"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="C58:C72"/>
+    <mergeCell ref="G58:G72"/>
+    <mergeCell ref="H58:H72"/>
+    <mergeCell ref="I58:I72"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="C43:C57"/>
+    <mergeCell ref="G43:G57"/>
+    <mergeCell ref="H43:H57"/>
+    <mergeCell ref="I43:I57"/>
+    <mergeCell ref="I88:I102"/>
+    <mergeCell ref="J88:J102"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="D97:D99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="J73:J87"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="E85:E87"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="J58:J72"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="E70:E72"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="E88:E90"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="B88:B102"/>
+    <mergeCell ref="C88:C102"/>
+    <mergeCell ref="G88:G102"/>
+    <mergeCell ref="H88:H102"/>
+    <mergeCell ref="B73:B87"/>
+    <mergeCell ref="C73:C87"/>
+    <mergeCell ref="D73:D75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="F73:F75"/>
+    <mergeCell ref="G73:G87"/>
+    <mergeCell ref="H73:H87"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="J103:J105"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="G106:G108"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="J106:J108"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="B109:B129"/>
+    <mergeCell ref="C109:C129"/>
+    <mergeCell ref="G109:G129"/>
+    <mergeCell ref="H109:H129"/>
+    <mergeCell ref="I109:I129"/>
+    <mergeCell ref="J109:J129"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="F112:F114"/>
+    <mergeCell ref="D115:D117"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="F115:F117"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="D124:D126"/>
+    <mergeCell ref="D121:D123"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="F121:F123"/>
+    <mergeCell ref="E124:E126"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="H172:H192"/>
+    <mergeCell ref="I172:I192"/>
+    <mergeCell ref="J172:J192"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="E175:E177"/>
+    <mergeCell ref="F175:F177"/>
+    <mergeCell ref="D178:D180"/>
+    <mergeCell ref="E178:E180"/>
+    <mergeCell ref="F178:F180"/>
+    <mergeCell ref="D181:D183"/>
+    <mergeCell ref="E181:E183"/>
+    <mergeCell ref="F181:F183"/>
+    <mergeCell ref="D184:D186"/>
+    <mergeCell ref="E184:E186"/>
+    <mergeCell ref="F184:F186"/>
+    <mergeCell ref="D187:D189"/>
+    <mergeCell ref="E187:E189"/>
+    <mergeCell ref="F187:F189"/>
+    <mergeCell ref="D190:D192"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="F190:F192"/>
+    <mergeCell ref="B235:B255"/>
+    <mergeCell ref="C235:C255"/>
+    <mergeCell ref="D235:D237"/>
+    <mergeCell ref="E235:E237"/>
+    <mergeCell ref="F235:F237"/>
+    <mergeCell ref="G235:G255"/>
+    <mergeCell ref="B172:B192"/>
+    <mergeCell ref="C172:C192"/>
+    <mergeCell ref="D172:D174"/>
+    <mergeCell ref="E172:E174"/>
+    <mergeCell ref="F172:F174"/>
+    <mergeCell ref="G172:G192"/>
+    <mergeCell ref="B214:B234"/>
+    <mergeCell ref="C214:C234"/>
+    <mergeCell ref="D214:D216"/>
+    <mergeCell ref="E214:E216"/>
+    <mergeCell ref="F214:F216"/>
+    <mergeCell ref="G214:G234"/>
+    <mergeCell ref="C193:C213"/>
+    <mergeCell ref="B193:B213"/>
+    <mergeCell ref="D193:D195"/>
+    <mergeCell ref="E193:E195"/>
+    <mergeCell ref="F193:F195"/>
+    <mergeCell ref="G193:G213"/>
+    <mergeCell ref="H256:H258"/>
+    <mergeCell ref="I256:I258"/>
+    <mergeCell ref="J256:J258"/>
+    <mergeCell ref="H235:H255"/>
+    <mergeCell ref="I235:I255"/>
+    <mergeCell ref="J235:J255"/>
+    <mergeCell ref="D238:D240"/>
+    <mergeCell ref="E238:E240"/>
+    <mergeCell ref="F238:F240"/>
+    <mergeCell ref="D241:D243"/>
+    <mergeCell ref="E241:E243"/>
+    <mergeCell ref="F241:F243"/>
+    <mergeCell ref="D244:D246"/>
+    <mergeCell ref="E244:E246"/>
+    <mergeCell ref="F244:F246"/>
+    <mergeCell ref="D247:D249"/>
+    <mergeCell ref="E247:E249"/>
+    <mergeCell ref="F247:F249"/>
+    <mergeCell ref="D250:D252"/>
+    <mergeCell ref="E250:E252"/>
+    <mergeCell ref="F250:F252"/>
+    <mergeCell ref="D253:D255"/>
+    <mergeCell ref="E253:E255"/>
+    <mergeCell ref="F253:F255"/>
+    <mergeCell ref="D256:D258"/>
+    <mergeCell ref="E256:E258"/>
+    <mergeCell ref="F256:F258"/>
+    <mergeCell ref="B259:B261"/>
+    <mergeCell ref="C259:C261"/>
+    <mergeCell ref="D259:D261"/>
+    <mergeCell ref="E259:E261"/>
+    <mergeCell ref="F259:F261"/>
+    <mergeCell ref="G259:G261"/>
+    <mergeCell ref="B256:B258"/>
+    <mergeCell ref="C256:C258"/>
+    <mergeCell ref="G256:G258"/>
+    <mergeCell ref="H259:H261"/>
+    <mergeCell ref="I259:I261"/>
+    <mergeCell ref="J259:J261"/>
+    <mergeCell ref="B262:B264"/>
+    <mergeCell ref="C262:C264"/>
+    <mergeCell ref="D262:D264"/>
+    <mergeCell ref="E262:E264"/>
+    <mergeCell ref="F262:F264"/>
+    <mergeCell ref="G262:G264"/>
+    <mergeCell ref="H262:H264"/>
+    <mergeCell ref="I262:I264"/>
+    <mergeCell ref="J262:J264"/>
+    <mergeCell ref="B265:B279"/>
+    <mergeCell ref="C265:C279"/>
+    <mergeCell ref="G265:G279"/>
+    <mergeCell ref="H265:H279"/>
+    <mergeCell ref="I265:I279"/>
+    <mergeCell ref="J265:J279"/>
+    <mergeCell ref="D268:D270"/>
+    <mergeCell ref="E268:E270"/>
+    <mergeCell ref="F268:F270"/>
+    <mergeCell ref="D271:D273"/>
+    <mergeCell ref="E271:E273"/>
+    <mergeCell ref="F271:F273"/>
+    <mergeCell ref="D274:D276"/>
+    <mergeCell ref="E274:E276"/>
+    <mergeCell ref="F274:F276"/>
+    <mergeCell ref="D280:D282"/>
+    <mergeCell ref="E280:E282"/>
+    <mergeCell ref="F280:F282"/>
+    <mergeCell ref="D277:D279"/>
+    <mergeCell ref="E277:E279"/>
+    <mergeCell ref="F277:F279"/>
+    <mergeCell ref="D265:D267"/>
+    <mergeCell ref="E265:E267"/>
+    <mergeCell ref="F265:F267"/>
     <mergeCell ref="B280:B282"/>
     <mergeCell ref="C280:C282"/>
     <mergeCell ref="G280:G282"/>
@@ -5700,334 +5926,108 @@
     <mergeCell ref="D292:D294"/>
     <mergeCell ref="E292:E294"/>
     <mergeCell ref="F292:F294"/>
-    <mergeCell ref="D280:D282"/>
-    <mergeCell ref="E280:E282"/>
-    <mergeCell ref="F280:F282"/>
-    <mergeCell ref="D277:D279"/>
-    <mergeCell ref="E277:E279"/>
-    <mergeCell ref="F277:F279"/>
-    <mergeCell ref="D265:D267"/>
-    <mergeCell ref="E265:E267"/>
-    <mergeCell ref="F265:F267"/>
-    <mergeCell ref="B265:B279"/>
-    <mergeCell ref="C265:C279"/>
-    <mergeCell ref="G265:G279"/>
-    <mergeCell ref="H265:H279"/>
-    <mergeCell ref="I265:I279"/>
-    <mergeCell ref="J265:J279"/>
-    <mergeCell ref="D268:D270"/>
-    <mergeCell ref="E268:E270"/>
-    <mergeCell ref="F268:F270"/>
-    <mergeCell ref="D271:D273"/>
-    <mergeCell ref="E271:E273"/>
-    <mergeCell ref="F271:F273"/>
-    <mergeCell ref="D274:D276"/>
-    <mergeCell ref="E274:E276"/>
-    <mergeCell ref="F274:F276"/>
-    <mergeCell ref="H259:H261"/>
-    <mergeCell ref="I259:I261"/>
-    <mergeCell ref="J259:J261"/>
-    <mergeCell ref="B262:B264"/>
-    <mergeCell ref="C262:C264"/>
-    <mergeCell ref="D262:D264"/>
-    <mergeCell ref="E262:E264"/>
-    <mergeCell ref="F262:F264"/>
-    <mergeCell ref="G262:G264"/>
-    <mergeCell ref="H262:H264"/>
-    <mergeCell ref="I262:I264"/>
-    <mergeCell ref="J262:J264"/>
-    <mergeCell ref="D256:D258"/>
-    <mergeCell ref="E256:E258"/>
-    <mergeCell ref="F256:F258"/>
-    <mergeCell ref="B259:B261"/>
-    <mergeCell ref="C259:C261"/>
-    <mergeCell ref="D259:D261"/>
-    <mergeCell ref="E259:E261"/>
-    <mergeCell ref="F259:F261"/>
-    <mergeCell ref="G259:G261"/>
-    <mergeCell ref="B256:B258"/>
-    <mergeCell ref="C256:C258"/>
-    <mergeCell ref="G256:G258"/>
-    <mergeCell ref="H256:H258"/>
-    <mergeCell ref="I256:I258"/>
-    <mergeCell ref="J256:J258"/>
-    <mergeCell ref="H235:H255"/>
-    <mergeCell ref="I235:I255"/>
-    <mergeCell ref="J235:J255"/>
-    <mergeCell ref="D238:D240"/>
-    <mergeCell ref="E238:E240"/>
-    <mergeCell ref="F238:F240"/>
-    <mergeCell ref="D241:D243"/>
-    <mergeCell ref="E241:E243"/>
-    <mergeCell ref="F241:F243"/>
-    <mergeCell ref="D244:D246"/>
-    <mergeCell ref="E244:E246"/>
-    <mergeCell ref="F244:F246"/>
-    <mergeCell ref="D247:D249"/>
-    <mergeCell ref="E247:E249"/>
-    <mergeCell ref="F247:F249"/>
-    <mergeCell ref="D250:D252"/>
-    <mergeCell ref="E250:E252"/>
-    <mergeCell ref="F250:F252"/>
-    <mergeCell ref="D253:D255"/>
-    <mergeCell ref="E253:E255"/>
-    <mergeCell ref="F253:F255"/>
-    <mergeCell ref="B235:B255"/>
-    <mergeCell ref="C235:C255"/>
-    <mergeCell ref="D235:D237"/>
-    <mergeCell ref="E235:E237"/>
-    <mergeCell ref="F235:F237"/>
-    <mergeCell ref="G235:G255"/>
-    <mergeCell ref="B172:B192"/>
-    <mergeCell ref="C172:C192"/>
-    <mergeCell ref="D172:D174"/>
-    <mergeCell ref="E172:E174"/>
-    <mergeCell ref="F172:F174"/>
-    <mergeCell ref="G172:G192"/>
-    <mergeCell ref="B214:B234"/>
-    <mergeCell ref="C214:C234"/>
-    <mergeCell ref="D214:D216"/>
-    <mergeCell ref="E214:E216"/>
-    <mergeCell ref="F214:F216"/>
-    <mergeCell ref="G214:G234"/>
-    <mergeCell ref="C193:C213"/>
-    <mergeCell ref="B193:B213"/>
-    <mergeCell ref="D193:D195"/>
-    <mergeCell ref="E193:E195"/>
-    <mergeCell ref="F193:F195"/>
-    <mergeCell ref="G193:G213"/>
-    <mergeCell ref="F121:F123"/>
-    <mergeCell ref="E124:E126"/>
-    <mergeCell ref="F124:F126"/>
-    <mergeCell ref="H172:H192"/>
-    <mergeCell ref="I172:I192"/>
-    <mergeCell ref="J172:J192"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="E175:E177"/>
-    <mergeCell ref="F175:F177"/>
-    <mergeCell ref="D178:D180"/>
-    <mergeCell ref="E178:E180"/>
-    <mergeCell ref="F178:F180"/>
-    <mergeCell ref="D181:D183"/>
-    <mergeCell ref="E181:E183"/>
-    <mergeCell ref="F181:F183"/>
-    <mergeCell ref="D184:D186"/>
-    <mergeCell ref="E184:E186"/>
-    <mergeCell ref="F184:F186"/>
-    <mergeCell ref="D187:D189"/>
-    <mergeCell ref="E187:E189"/>
-    <mergeCell ref="F187:F189"/>
-    <mergeCell ref="D190:D192"/>
-    <mergeCell ref="E190:E192"/>
-    <mergeCell ref="F190:F192"/>
-    <mergeCell ref="D109:D111"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="B109:B129"/>
-    <mergeCell ref="C109:C129"/>
-    <mergeCell ref="G109:G129"/>
-    <mergeCell ref="H109:H129"/>
-    <mergeCell ref="I109:I129"/>
-    <mergeCell ref="J109:J129"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="F112:F114"/>
-    <mergeCell ref="D115:D117"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="F115:F117"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="D124:D126"/>
-    <mergeCell ref="D121:D123"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="J103:J105"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="G106:G108"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="I106:I108"/>
-    <mergeCell ref="J106:J108"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="J73:J87"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="F76:F78"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="E85:E87"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="J58:J72"/>
-    <mergeCell ref="D70:D72"/>
-    <mergeCell ref="E70:E72"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="E79:E81"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="E88:E90"/>
-    <mergeCell ref="F88:F90"/>
-    <mergeCell ref="B88:B102"/>
-    <mergeCell ref="C88:C102"/>
-    <mergeCell ref="G88:G102"/>
-    <mergeCell ref="H88:H102"/>
-    <mergeCell ref="I88:I102"/>
-    <mergeCell ref="J88:J102"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="E91:E93"/>
-    <mergeCell ref="F91:F93"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="D97:D99"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="B73:B87"/>
-    <mergeCell ref="C73:C87"/>
-    <mergeCell ref="D73:D75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="F73:F75"/>
-    <mergeCell ref="G73:G87"/>
-    <mergeCell ref="H73:H87"/>
-    <mergeCell ref="I73:I87"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="B58:B72"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="C58:C72"/>
-    <mergeCell ref="G58:G72"/>
-    <mergeCell ref="H58:H72"/>
-    <mergeCell ref="I58:I72"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="C43:C57"/>
-    <mergeCell ref="G43:G57"/>
-    <mergeCell ref="H43:H57"/>
-    <mergeCell ref="I43:I57"/>
-    <mergeCell ref="J43:J57"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="I28:I42"/>
-    <mergeCell ref="J28:J42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="D52:D54"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="G28:G42"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="H28:H42"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="C28:C42"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G19:G24"/>
-    <mergeCell ref="H19:H24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="B3:D5"/>
-    <mergeCell ref="E3:F5"/>
-    <mergeCell ref="G3:H5"/>
-    <mergeCell ref="I3:J5"/>
-    <mergeCell ref="B6:D8"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:H8"/>
-    <mergeCell ref="I6:J8"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="I19:I27"/>
-    <mergeCell ref="J19:J27"/>
-    <mergeCell ref="B9:D11"/>
-    <mergeCell ref="E9:F11"/>
-    <mergeCell ref="G9:H11"/>
-    <mergeCell ref="I9:J11"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="H193:H213"/>
-    <mergeCell ref="I193:I213"/>
-    <mergeCell ref="J193:J213"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="E196:E198"/>
-    <mergeCell ref="F196:F198"/>
-    <mergeCell ref="D199:D201"/>
-    <mergeCell ref="E199:E201"/>
-    <mergeCell ref="F199:F201"/>
-    <mergeCell ref="D202:D204"/>
-    <mergeCell ref="E202:E204"/>
-    <mergeCell ref="F202:F204"/>
-    <mergeCell ref="D205:D207"/>
-    <mergeCell ref="E205:E207"/>
-    <mergeCell ref="F205:F207"/>
-    <mergeCell ref="D208:D210"/>
-    <mergeCell ref="E208:E210"/>
-    <mergeCell ref="F208:F210"/>
-    <mergeCell ref="D211:D213"/>
-    <mergeCell ref="E211:E213"/>
-    <mergeCell ref="F211:F213"/>
+    <mergeCell ref="D295:D297"/>
+    <mergeCell ref="E295:E297"/>
+    <mergeCell ref="F295:F297"/>
+    <mergeCell ref="D298:D300"/>
+    <mergeCell ref="E298:E300"/>
+    <mergeCell ref="F298:F300"/>
+    <mergeCell ref="D301:D303"/>
+    <mergeCell ref="E301:E303"/>
+    <mergeCell ref="F301:F303"/>
+    <mergeCell ref="B304:B306"/>
+    <mergeCell ref="C304:C306"/>
+    <mergeCell ref="D304:D306"/>
+    <mergeCell ref="E304:E306"/>
+    <mergeCell ref="F304:F306"/>
+    <mergeCell ref="G304:G306"/>
+    <mergeCell ref="H304:H306"/>
+    <mergeCell ref="I304:I306"/>
+    <mergeCell ref="J304:J306"/>
+    <mergeCell ref="B307:B309"/>
+    <mergeCell ref="C307:C309"/>
+    <mergeCell ref="D307:D309"/>
+    <mergeCell ref="E307:E309"/>
+    <mergeCell ref="F307:F309"/>
+    <mergeCell ref="G307:G309"/>
+    <mergeCell ref="H307:H309"/>
+    <mergeCell ref="I307:I309"/>
+    <mergeCell ref="J307:J309"/>
+    <mergeCell ref="H130:H150"/>
+    <mergeCell ref="I130:I150"/>
+    <mergeCell ref="J130:J150"/>
+    <mergeCell ref="D133:D135"/>
+    <mergeCell ref="E133:E135"/>
+    <mergeCell ref="F133:F135"/>
+    <mergeCell ref="D136:D138"/>
+    <mergeCell ref="E136:E138"/>
+    <mergeCell ref="F136:F138"/>
+    <mergeCell ref="D139:D141"/>
+    <mergeCell ref="E139:E141"/>
+    <mergeCell ref="F139:F141"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="F142:F144"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="F145:F147"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="E148:E150"/>
+    <mergeCell ref="F148:F150"/>
+    <mergeCell ref="B151:B171"/>
+    <mergeCell ref="C151:C171"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="E151:E153"/>
+    <mergeCell ref="F151:F153"/>
+    <mergeCell ref="G151:G171"/>
+    <mergeCell ref="B130:B150"/>
+    <mergeCell ref="C130:C150"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="E130:E132"/>
+    <mergeCell ref="F130:F132"/>
+    <mergeCell ref="G130:G150"/>
+    <mergeCell ref="H151:H171"/>
+    <mergeCell ref="I151:I171"/>
+    <mergeCell ref="J151:J171"/>
+    <mergeCell ref="D154:D156"/>
+    <mergeCell ref="E154:E156"/>
+    <mergeCell ref="F154:F156"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="F157:F159"/>
+    <mergeCell ref="D160:D162"/>
+    <mergeCell ref="E160:E162"/>
+    <mergeCell ref="F160:F162"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="E163:E165"/>
+    <mergeCell ref="F163:F165"/>
+    <mergeCell ref="D166:D168"/>
+    <mergeCell ref="E166:E168"/>
+    <mergeCell ref="F166:F168"/>
+    <mergeCell ref="D169:D171"/>
+    <mergeCell ref="E169:E171"/>
+    <mergeCell ref="F169:F171"/>
+    <mergeCell ref="H214:H234"/>
+    <mergeCell ref="I214:I234"/>
+    <mergeCell ref="J214:J234"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="E217:E219"/>
+    <mergeCell ref="F217:F219"/>
+    <mergeCell ref="D220:D222"/>
+    <mergeCell ref="E220:E222"/>
+    <mergeCell ref="F220:F222"/>
+    <mergeCell ref="D223:D225"/>
+    <mergeCell ref="E223:E225"/>
+    <mergeCell ref="F223:F225"/>
+    <mergeCell ref="D226:D228"/>
+    <mergeCell ref="E226:E228"/>
+    <mergeCell ref="F226:F228"/>
+    <mergeCell ref="D229:D231"/>
+    <mergeCell ref="E229:E231"/>
+    <mergeCell ref="F229:F231"/>
+    <mergeCell ref="D232:D234"/>
+    <mergeCell ref="E232:E234"/>
+    <mergeCell ref="F232:F234"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E19" r:id="rId1"/>
